--- a/ProjectStatus.xlsx
+++ b/ProjectStatus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUNY-Buffalo\Course\Program\ProgrammingDataScience\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUNY-Buffalo\Course\Program\ProgrammingDataScience\GIT-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9F8262-A60A-4A60-9267-D6F449D8C8C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76E3CA-40E3-44D8-AC5A-81C3CCC02CBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{CD304F78-5A39-40EC-A1D6-CBD29B1BCCB9}"/>
   </bookViews>
@@ -171,14 +171,33 @@
     <t>comments</t>
   </si>
   <si>
-    <t>04-21- Anand tried API but it shows it can read max of 200 tweets not more than that. Need to understand API more and work on it for now lets use tweet dataset which is already extracted and we can keep this direct integration at the end</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04-21- Anand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; tried API but it can read max of 200 tweets not more than that. Need to understand API more and work on it, for now lets use tweet dataset which is already extracted and we can keep this direct integration at the end</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +240,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,8 +345,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -872,117 +908,118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" customWidth="1"/>
-    <col min="4" max="4" width="41.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.08984375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="41.6328125" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectStatus.xlsx
+++ b/ProjectStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUNY-Buffalo\Course\Program\ProgrammingDataScience\GIT-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76E3CA-40E3-44D8-AC5A-81C3CCC02CBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5516F579-5311-4968-8E6D-2B631E0849E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{CD304F78-5A39-40EC-A1D6-CBD29B1BCCB9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
   <si>
     <t>Project</t>
   </si>
@@ -191,6 +191,19 @@
       </rPr>
       <t xml:space="preserve"> -&gt; tried API but it can read max of 200 tweets not more than that. Need to understand API more and work on it, for now lets use tweet dataset which is already extracted and we can keep this direct integration at the end</t>
     </r>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>We can use Kaggle dataset for it
+https://www.kaggle.com/timoboz/tesla-stock-data-from-2010-to-2020</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis - From scratch or using python library for tweet data or use python library</t>
   </si>
 </sst>
 </file>
@@ -311,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,6 +368,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -900,22 +916,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00746017-9FDB-433C-BF08-54AE6AD8604E}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.08984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="41.6328125" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="16"/>
+    <col min="3" max="4" width="28.453125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="41.6328125" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -926,10 +942,13 @@
         <v>30</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -937,31 +956,38 @@
         <v>39</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -970,8 +996,9 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -980,8 +1007,9 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -990,8 +1018,9 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1000,8 +1029,9 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1010,8 +1040,9 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1020,6 +1051,7 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectStatus.xlsx
+++ b/ProjectStatus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUNY-Buffalo\Course\Program\ProgrammingDataScience\GIT-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5516F579-5311-4968-8E6D-2B631E0849E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BE54B-E39E-4212-965D-DDCC42DF99E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{CD304F78-5A39-40EC-A1D6-CBD29B1BCCB9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Project</t>
   </si>
@@ -141,39 +141,52 @@
     <t>Responsible</t>
   </si>
   <si>
-    <t xml:space="preserve">NYSE stock data collection Tesla in CSV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactive plots in python </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design database based on data and tables </t>
-  </si>
-  <si>
-    <t>Write a generic python file - for all DB operation - creation, query and connection establish, close connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentiment Analysis - From scratch or using python library for tweet data </t>
-  </si>
-  <si>
-    <t>Write a specific python file - for inserting data and querying data for specific project tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correlation between tweet and the stock value </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plotting values for each sentiment and stock value </t>
-  </si>
-  <si>
-    <t>Reading tweets and loading to database using tweet API tweepy directly</t>
-  </si>
-  <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis - From scratch or using python library for tweet data or use python library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading tweets and loading to database using tweet API tweepy directly - Currently we are using JSON file loading directly from dataset instead of using API </t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Reading NYSE stock data and loading to database and querying data from database - table creation,insertion and querying          We will use Kaggle dataset for it
+https://www.kaggle.com/timoboz/tesla-stock-data-from-2010-to-2020</t>
+  </si>
+  <si>
+    <t>Supreet</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlation of stock table and tweet table data </t>
+  </si>
+  <si>
+    <t>Interactive plots for represting sentiment analysis and its effects on stock data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project design document </t>
+  </si>
+  <si>
+    <t>Project Report</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -183,27 +196,34 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -&gt; tried API but it can read max of 200 tweets not more than that. Need to understand API more and work on it, for now lets use tweet dataset which is already extracted and we can keep this direct integration at the end</t>
+      <t xml:space="preserve"> -&gt; tried API but it can read max of 200 tweets not more than that. Need to understand API more and work on it, for now lets use tweet dataset which is already extracted and we can keep this direct integration at the end                                        </t>
     </r>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>We can use Kaggle dataset for it
-https://www.kaggle.com/timoboz/tesla-stock-data-from-2010-to-2020</t>
-  </si>
-  <si>
-    <t>Sentiment Analysis - From scratch or using python library for tweet data or use python library</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04-22- Anand -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Finsihed coding for the preprocessing of tweet data and loading to database checked into Git                  </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -258,7 +278,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -324,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -358,19 +378,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -919,139 +936,140 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.08984375" style="16" customWidth="1"/>
-    <col min="3" max="4" width="28.453125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="41.6328125" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="104" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectStatus.xlsx
+++ b/ProjectStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUNY-Buffalo\Course\Program\ProgrammingDataScience\GIT-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BE54B-E39E-4212-965D-DDCC42DF99E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF624135-23CB-452C-A801-3D5F772EE7A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{CD304F78-5A39-40EC-A1D6-CBD29B1BCCB9}"/>
   </bookViews>
@@ -936,7 +936,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>

--- a/ProjectStatus.xlsx
+++ b/ProjectStatus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUNY-Buffalo\Course\Program\ProgrammingDataScience\GIT-Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\PythonRepos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF624135-23CB-452C-A801-3D5F772EE7A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B3449E-BE4F-4281-9356-26773F876E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{CD304F78-5A39-40EC-A1D6-CBD29B1BCCB9}"/>
   </bookViews>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">Correlation of stock table and tweet table data </t>
-  </si>
-  <si>
-    <t>Interactive plots for represting sentiment analysis and its effects on stock data</t>
   </si>
   <si>
     <t xml:space="preserve">Project design document </t>
@@ -224,6 +221,9 @@
       </rPr>
       <t xml:space="preserve"> Finsihed coding for the preprocessing of tweet data and loading to database checked into Git                  </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive plots for represting sentiment analysis and its effects on stock data </t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -980,7 +980,7 @@
         <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="65" x14ac:dyDescent="0.35">
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1051,7 +1051,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>

--- a/ProjectStatus.xlsx
+++ b/ProjectStatus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\PythonRepos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUNY-Buffalo\Course\Program\ProgrammingDataScience\GIT-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B3449E-BE4F-4281-9356-26773F876E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA232298-7AE4-4266-842A-B35077AB62DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{CD304F78-5A39-40EC-A1D6-CBD29B1BCCB9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Project</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">Interactive plots for represting sentiment analysis and its effects on stock data </t>
+  </si>
+  <si>
+    <t>05-04-Supreet - Formatted and uploaded into GIT - 05-09</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -994,9 +997,11 @@
         <v>38</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
